--- a/untranslated/downloads/data-excel/8.2.1.xlsx
+++ b/untranslated/downloads/data-excel/8.2.1.xlsx
@@ -650,9 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -661,7 +663,7 @@
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.75" customHeight="1">
+    <row r="1" spans="1:17" ht="30.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -672,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -683,10 +685,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
@@ -735,8 +737,11 @@
       <c r="P4" s="21">
         <v>2019</v>
       </c>
+      <c r="Q4" s="21">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="21" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -785,8 +790,11 @@
       <c r="P5" s="10">
         <v>102.9</v>
       </c>
+      <c r="Q5" s="10">
+        <v>90.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>

--- a/untranslated/downloads/data-excel/8.2.1.xlsx
+++ b/untranslated/downloads/data-excel/8.2.1.xlsx
@@ -56,10 +56,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -269,7 +270,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -325,6 +326,9 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -650,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -663,7 +667,7 @@
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.75" customHeight="1">
+    <row r="1" spans="1:18" ht="30.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -674,7 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -685,10 +689,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
@@ -740,8 +744,11 @@
       <c r="Q4" s="21">
         <v>2020</v>
       </c>
+      <c r="R4" s="21">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="21" customHeight="1" thickBot="1">
+    <row r="5" spans="1:18" ht="21" customHeight="1" thickBot="1">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -793,8 +800,11 @@
       <c r="Q5" s="10">
         <v>90.6</v>
       </c>
+      <c r="R5" s="22">
+        <v>102.20441221981518</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>

--- a/untranslated/downloads/data-excel/8.2.1.xlsx
+++ b/untranslated/downloads/data-excel/8.2.1.xlsx
@@ -56,11 +56,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -270,7 +269,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -326,9 +325,6 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -654,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,7 +663,7 @@
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30.75" customHeight="1">
+    <row r="1" spans="1:17" ht="30.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -678,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -689,10 +685,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
@@ -744,11 +740,8 @@
       <c r="Q4" s="21">
         <v>2020</v>
       </c>
-      <c r="R4" s="21">
-        <v>2021</v>
-      </c>
     </row>
-    <row r="5" spans="1:18" ht="21" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" ht="21" customHeight="1" thickBot="1">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -800,11 +793,8 @@
       <c r="Q5" s="10">
         <v>90.6</v>
       </c>
-      <c r="R5" s="22">
-        <v>102.20441221981518</v>
-      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:17">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>

--- a/untranslated/downloads/data-excel/8.2.1.xlsx
+++ b/untranslated/downloads/data-excel/8.2.1.xlsx
@@ -654,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -667,7 +667,7 @@
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30.75" customHeight="1">
+    <row r="1" spans="1:19" ht="30.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -678,7 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -689,10 +689,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
@@ -747,8 +747,11 @@
       <c r="R4" s="21">
         <v>2021</v>
       </c>
+      <c r="S4" s="21">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="21" customHeight="1" thickBot="1">
+    <row r="5" spans="1:19" ht="21" customHeight="1" thickBot="1">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -797,14 +800,17 @@
       <c r="P5" s="10">
         <v>102.9</v>
       </c>
-      <c r="Q5" s="10">
-        <v>90.6</v>
+      <c r="Q5" s="22">
+        <v>91.892815141492093</v>
       </c>
       <c r="R5" s="22">
-        <v>102.20441221981518</v>
+        <v>101.53074848578628</v>
+      </c>
+      <c r="S5" s="22">
+        <v>109.27053140096621</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19"/>

--- a/untranslated/downloads/data-excel/8.2.1.xlsx
+++ b/untranslated/downloads/data-excel/8.2.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Производительность труда</t>
   </si>
@@ -50,6 +50,72 @@
   </si>
   <si>
     <t>8.2.1 Annual growth rate of real GDP per employed person</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2020-жылдан баштап маалыматтар, 2008 жылдагы Улуттук Эсептер Тутумунун эл аралык стандарттарына ылайык эсептелген </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Данные с 2020 года рассчитаны по международному стандарту Системы Национальных Счетов 2008 года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Data from 2020 are calculated according to the international standard of the System of National Accounts 2008</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -62,7 +128,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +268,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +329,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -269,8 +353,9 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,11 +403,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -330,8 +410,15 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="22">
+    <cellStyle name="Normal_GDP1" xfId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 10" xfId="6"/>
     <cellStyle name="Обычный 2" xfId="1"/>
@@ -654,11 +741,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -667,7 +752,7 @@
     <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30.75" customHeight="1">
+    <row r="1" spans="1:20" ht="30.75" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -678,7 +763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -689,10 +774,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="13"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
@@ -738,20 +823,23 @@
       <c r="O4" s="6">
         <v>2018</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="18">
         <v>2019</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="18">
         <v>2020</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="18">
         <v>2021</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="18">
         <v>2022</v>
       </c>
+      <c r="T4" s="18">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="21" customHeight="1" thickBot="1">
+    <row r="5" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -800,30 +888,39 @@
       <c r="P5" s="10">
         <v>102.9</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="19">
         <v>91.892815141492093</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="19">
         <v>101.53074848578628</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="19">
         <v>109.27053140096621</v>
       </c>
+      <c r="T5" s="19">
+        <v>105.59374642341281</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+    <row r="6" spans="1:20" ht="36.75" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
